--- a/SpMVC_ReadBook/00.테이블명세 양식.xlsx
+++ b/SpMVC_ReadBook/00.테이블명세 양식.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자 문서\040. 데이터베이스 DataBase\데이터변환용 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ReadBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17854CFF-7D48-45CC-9865-44038EBFCAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,13 +95,137 @@
   </si>
   <si>
     <t>오라클형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_iolist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_TIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IO_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_PNAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_QUAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(30)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -490,7 +613,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -802,11 +925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="E5" sqref="E5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1459,7 +1582,9 @@
       <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="D1" s="24" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +1605,9 @@
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -1547,12 +1674,22 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1562,11 +1699,21 @@
       <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1577,10 +1724,18 @@
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1592,10 +1747,18 @@
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1603,14 +1766,22 @@
       <c r="K8" s="4"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1618,14 +1789,22 @@
       <c r="K9" s="4"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1633,14 +1812,22 @@
       <c r="K10" s="4"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1652,10 +1839,18 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
